--- a/data_year/zb/固定资产投资和房地产/房地产开发企业资产负债.xlsx
+++ b/data_year/zb/固定资产投资和房地产/房地产开发企业资产负债.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,589 +473,337 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5302.9071</v>
+        <v>36767.4134</v>
       </c>
       <c r="C2" t="n">
-        <v>6153.8842</v>
+        <v>57170.1165</v>
       </c>
       <c r="D2" t="n">
-        <v>57.7153</v>
+        <v>379.8135</v>
       </c>
       <c r="E2" t="n">
-        <v>299.2816</v>
+        <v>1758.3381</v>
       </c>
       <c r="F2" t="n">
-        <v>19032.1015</v>
+        <v>167297.4144</v>
       </c>
       <c r="G2" t="n">
-        <v>25185.9857</v>
+        <v>224467.1365</v>
       </c>
       <c r="H2" t="n">
-        <v>75.59999999999999</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6019.8577</v>
+        <v>46430.63383</v>
       </c>
       <c r="C3" t="n">
-        <v>7131.0966</v>
+        <v>69889.73149999999</v>
       </c>
       <c r="D3" t="n">
-        <v>67.4683</v>
+        <v>427.26213</v>
       </c>
       <c r="E3" t="n">
-        <v>354.4631</v>
+        <v>2113.62503</v>
       </c>
       <c r="F3" t="n">
-        <v>21435.716</v>
+        <v>214469.96414</v>
       </c>
       <c r="G3" t="n">
-        <v>28566.8126</v>
+        <v>284359.44349</v>
       </c>
       <c r="H3" t="n">
-        <v>75</v>
+        <v>75.4221352763</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6750.9145</v>
+        <v>54735.35675</v>
       </c>
       <c r="C4" t="n">
-        <v>8278.5587</v>
+        <v>87261.09839</v>
       </c>
       <c r="D4" t="n">
-        <v>81.7353</v>
+        <v>525.34975</v>
       </c>
       <c r="E4" t="n">
-        <v>390.5332</v>
+        <v>2360.91855</v>
       </c>
       <c r="F4" t="n">
-        <v>24764.5673</v>
+        <v>264597.55329</v>
       </c>
       <c r="G4" t="n">
-        <v>33043.126</v>
+        <v>351858.65168</v>
       </c>
       <c r="H4" t="n">
-        <v>74.90000000000001</v>
+        <v>75.199956581</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8471.0226</v>
+        <v>59987.58963</v>
       </c>
       <c r="C5" t="n">
-        <v>9787.9321</v>
+        <v>102015.64726</v>
       </c>
       <c r="D5" t="n">
-        <v>96.83369999999999</v>
+        <v>626.74074</v>
       </c>
       <c r="E5" t="n">
-        <v>450.8222</v>
+        <v>2871.45497</v>
       </c>
       <c r="F5" t="n">
-        <v>30698.5556</v>
+        <v>323228.24049</v>
       </c>
       <c r="G5" t="n">
-        <v>40486.4877</v>
+        <v>425243.88779</v>
       </c>
       <c r="H5" t="n">
-        <v>75.8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12545.8025</v>
+        <v>76566.03937</v>
       </c>
       <c r="C6" t="n">
-        <v>16005.5624</v>
+        <v>114654.3981</v>
       </c>
       <c r="D6" t="n">
-        <v>139.1839</v>
+        <v>616.6747</v>
       </c>
       <c r="E6" t="n">
-        <v>598.0181</v>
+        <v>3099.88653</v>
       </c>
       <c r="F6" t="n">
-        <v>45783.6253</v>
+        <v>384095.52541</v>
       </c>
       <c r="G6" t="n">
-        <v>61789.1877</v>
+        <v>498749.92351</v>
       </c>
       <c r="H6" t="n">
-        <v>74.09999999999999</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13926.9809</v>
+        <v>78329.42</v>
       </c>
       <c r="C7" t="n">
-        <v>19672.9331</v>
+        <v>123238.1565</v>
       </c>
       <c r="D7" t="n">
-        <v>157.35</v>
+        <v>596.60821</v>
       </c>
       <c r="E7" t="n">
-        <v>737.0146</v>
+        <v>3265.20036</v>
       </c>
       <c r="F7" t="n">
-        <v>52520.7058</v>
+        <v>428729.89856</v>
       </c>
       <c r="G7" t="n">
-        <v>72193.63890000001</v>
+        <v>551968.05506</v>
       </c>
       <c r="H7" t="n">
-        <v>72.74976937060001</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16172.3714</v>
+        <v>79278.30175</v>
       </c>
       <c r="C8" t="n">
-        <v>22921.3191</v>
+        <v>135983.38069</v>
       </c>
       <c r="D8" t="n">
-        <v>191.5774</v>
+        <v>640.4994</v>
       </c>
       <c r="E8" t="n">
-        <v>875.6660000000001</v>
+        <v>3658.292</v>
       </c>
       <c r="F8" t="n">
-        <v>65476.6717</v>
+        <v>489750.32165</v>
       </c>
       <c r="G8" t="n">
-        <v>88397.9908</v>
+        <v>625733.70234</v>
       </c>
       <c r="H8" t="n">
-        <v>74.0713347752</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19437.997</v>
+        <v>85649.7455</v>
       </c>
       <c r="C9" t="n">
-        <v>28397.9662</v>
+        <v>150961.17</v>
       </c>
       <c r="D9" t="n">
-        <v>231.5942</v>
+        <v>657.17607</v>
       </c>
       <c r="E9" t="n">
-        <v>1025.6466</v>
+        <v>3909.38205</v>
       </c>
       <c r="F9" t="n">
-        <v>82680.22930000001</v>
+        <v>571274.84829</v>
       </c>
       <c r="G9" t="n">
-        <v>111078.1955</v>
+        <v>722236.01829</v>
       </c>
       <c r="H9" t="n">
-        <v>74.43425681150001</v>
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27561.904</v>
+        <v>95324.97315999999</v>
       </c>
       <c r="C10" t="n">
-        <v>40051.2377</v>
+        <v>178382.97642</v>
       </c>
       <c r="D10" t="n">
-        <v>340.1887</v>
+        <v>904.58905</v>
       </c>
       <c r="E10" t="n">
-        <v>1414.1374</v>
+        <v>4358.86393</v>
       </c>
       <c r="F10" t="n">
-        <v>104782.3089</v>
+        <v>674333.36386</v>
       </c>
       <c r="G10" t="n">
-        <v>144833.5466</v>
+        <v>852720.5372</v>
       </c>
       <c r="H10" t="n">
-        <v>72.3</v>
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28966.0236</v>
+        <v>105248.80982</v>
       </c>
       <c r="C11" t="n">
-        <v>45141.5104</v>
+        <v>185900.40618</v>
       </c>
       <c r="D11" t="n">
-        <v>320.4128</v>
+        <v>841.77649</v>
       </c>
       <c r="E11" t="n">
-        <v>1469.9624</v>
+        <v>4521.18048</v>
       </c>
       <c r="F11" t="n">
-        <v>125042.726</v>
+        <v>762035.18967</v>
       </c>
       <c r="G11" t="n">
-        <v>170184.2364</v>
+        <v>947935.59585</v>
       </c>
       <c r="H11" t="n">
-        <v>73.5</v>
+        <v>80.3889201973</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>36767.4134</v>
+        <v>116652.01548</v>
       </c>
       <c r="C12" t="n">
-        <v>57170.1165</v>
+        <v>205283.71319</v>
       </c>
       <c r="D12" t="n">
-        <v>379.8135</v>
+        <v>842.31927</v>
       </c>
       <c r="E12" t="n">
-        <v>1758.3381</v>
+        <v>4845.32415</v>
       </c>
       <c r="F12" t="n">
-        <v>167297.4144</v>
+        <v>857043.71763</v>
       </c>
       <c r="G12" t="n">
-        <v>224467.1365</v>
+        <v>1062327.43086</v>
       </c>
       <c r="H12" t="n">
-        <v>74.5</v>
+        <v>80.6760413723089</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46430.63383</v>
+        <v>127272.18129</v>
       </c>
       <c r="C13" t="n">
-        <v>69889.73149999999</v>
+        <v>223373.18449</v>
       </c>
       <c r="D13" t="n">
-        <v>427.26213</v>
+        <v>886.39772</v>
       </c>
       <c r="E13" t="n">
-        <v>2113.62503</v>
+        <v>5216.61969</v>
       </c>
       <c r="F13" t="n">
-        <v>214469.96414</v>
+        <v>910483.5483</v>
       </c>
       <c r="G13" t="n">
-        <v>284359.44349</v>
+        <v>1133856.7327</v>
       </c>
       <c r="H13" t="n">
-        <v>75.4221352763</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>54735.35675</v>
-      </c>
-      <c r="C14" t="n">
-        <v>87261.09839</v>
-      </c>
-      <c r="D14" t="n">
-        <v>525.34975</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2360.91855</v>
-      </c>
-      <c r="F14" t="n">
-        <v>264597.55329</v>
-      </c>
-      <c r="G14" t="n">
-        <v>351858.65168</v>
-      </c>
-      <c r="H14" t="n">
-        <v>75.199956581</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>59987.58963</v>
-      </c>
-      <c r="C15" t="n">
-        <v>102015.64726</v>
-      </c>
-      <c r="D15" t="n">
-        <v>626.74074</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2871.45497</v>
-      </c>
-      <c r="F15" t="n">
-        <v>323228.24049</v>
-      </c>
-      <c r="G15" t="n">
-        <v>425243.88779</v>
-      </c>
-      <c r="H15" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>76566.03937</v>
-      </c>
-      <c r="C16" t="n">
-        <v>114654.3981</v>
-      </c>
-      <c r="D16" t="n">
-        <v>616.6747</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3099.88653</v>
-      </c>
-      <c r="F16" t="n">
-        <v>384095.52541</v>
-      </c>
-      <c r="G16" t="n">
-        <v>498749.92351</v>
-      </c>
-      <c r="H16" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>78329.42</v>
-      </c>
-      <c r="C17" t="n">
-        <v>123238.1565</v>
-      </c>
-      <c r="D17" t="n">
-        <v>596.60821</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3265.20036</v>
-      </c>
-      <c r="F17" t="n">
-        <v>428729.89856</v>
-      </c>
-      <c r="G17" t="n">
-        <v>551968.05506</v>
-      </c>
-      <c r="H17" t="n">
-        <v>77.7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>79278.30175</v>
-      </c>
-      <c r="C18" t="n">
-        <v>135983.38069</v>
-      </c>
-      <c r="D18" t="n">
-        <v>640.4994</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3658.292</v>
-      </c>
-      <c r="F18" t="n">
-        <v>489750.32165</v>
-      </c>
-      <c r="G18" t="n">
-        <v>625733.70234</v>
-      </c>
-      <c r="H18" t="n">
-        <v>78.3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>85649.7455</v>
-      </c>
-      <c r="C19" t="n">
-        <v>150961.17</v>
-      </c>
-      <c r="D19" t="n">
-        <v>657.17607</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3909.38205</v>
-      </c>
-      <c r="F19" t="n">
-        <v>571274.84829</v>
-      </c>
-      <c r="G19" t="n">
-        <v>722236.01829</v>
-      </c>
-      <c r="H19" t="n">
-        <v>79.09999999999999</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>95324.97315999999</v>
-      </c>
-      <c r="C20" t="n">
-        <v>178382.97642</v>
-      </c>
-      <c r="D20" t="n">
-        <v>904.58905</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4358.86393</v>
-      </c>
-      <c r="F20" t="n">
-        <v>674333.36386</v>
-      </c>
-      <c r="G20" t="n">
-        <v>852720.5372</v>
-      </c>
-      <c r="H20" t="n">
-        <v>79.09999999999999</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>105248.80982</v>
-      </c>
-      <c r="C21" t="n">
-        <v>185900.40618</v>
-      </c>
-      <c r="D21" t="n">
-        <v>841.77649</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4521.18048</v>
-      </c>
-      <c r="F21" t="n">
-        <v>762035.18967</v>
-      </c>
-      <c r="G21" t="n">
-        <v>947935.59585</v>
-      </c>
-      <c r="H21" t="n">
-        <v>80.3889201973</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>116652.01548</v>
-      </c>
-      <c r="C22" t="n">
-        <v>205283.71319</v>
-      </c>
-      <c r="D22" t="n">
-        <v>842.31927</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4845.32415</v>
-      </c>
-      <c r="F22" t="n">
-        <v>857043.71763</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1062327.43086</v>
-      </c>
-      <c r="H22" t="n">
-        <v>80.6760413723089</v>
+        <v>80.2996994278023</v>
       </c>
     </row>
   </sheetData>
